--- a/11-CollaborationList/Swansea.xlsx
+++ b/11-CollaborationList/Swansea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E18BE-A39B-5F4A-B1BB-34A2D6FBB1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E877DF9E-1B5A-7D48-AAEC-8CDD8161C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{C7B4DE1C-39A7-AE49-9FC7-F7ADD8BDB7FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{C7B4DE1C-39A7-AE49-9FC7-F7ADD8BDB7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Swansea" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Title</t>
   </si>
@@ -82,9 +82,6 @@
     <t>c.baker@swansea.ac.uk</t>
   </si>
   <si>
-    <t>Christopher J. Baker</t>
-  </si>
-  <si>
     <t>Swansea-Physics</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>s.j.eriksson@swansea.ac.uk</t>
   </si>
   <si>
-    <t>Stefan J. Eriksson</t>
-  </si>
-  <si>
     <t>0000-0002-5390-1879</t>
   </si>
   <si>
@@ -160,43 +154,31 @@
     <t>P. Ruksasakchai</t>
   </si>
   <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>O.</t>
-  </si>
-  <si>
-    <t>owen.nicholas@WALES.NHS.UK</t>
-  </si>
-  <si>
-    <t>O.Nicholas</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Hugtenburg</t>
-  </si>
-  <si>
-    <t>R.P.Hugtenburg@Swansea.ac.uk</t>
-  </si>
-  <si>
-    <t>R.P.Hugtenburg</t>
-  </si>
-  <si>
-    <t>Swansea-BioMed</t>
-  </si>
-  <si>
-    <t>R.P.</t>
-  </si>
-  <si>
     <t>Department of Physics, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP, UK</t>
   </si>
   <si>
-    <t>Department of Biomedical Sciences, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP, UK</t>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>van der Werf</t>
+  </si>
+  <si>
+    <t>D. P.</t>
+  </si>
+  <si>
+    <t>d.p.van.der.werf@swansea.ac.uk</t>
+  </si>
+  <si>
+    <t>D. P. van der Werf</t>
+  </si>
+  <si>
+    <t>S. Eriksson</t>
+  </si>
+  <si>
+    <t>C. J. Baker</t>
+  </si>
+  <si>
+    <t>0000-0001-5436-5214</t>
   </si>
 </sst>
 </file>
@@ -752,8 +734,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0">
-  <autoFilter ref="A1:O8" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0">
+  <autoFilter ref="A1:O7" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{07AAADD6-1D96-3C47-AA7A-E0CE2B3A044F}" name="Title"/>
     <tableColumn id="2" xr3:uid="{67BBD9D0-348D-B448-B6F5-EE48C1CF1E38}" name="Name"/>
@@ -1092,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D5DD9B-58A0-6043-B6AD-BE2006C5709A}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,83 +1163,83 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1265,25 +1247,25 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1294,25 +1276,25 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1320,65 +1302,36 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{CBF6965A-B617-CE41-A8C3-A66A14FE6698}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{C35D335D-5AA8-614B-AE5C-BD6A19A27505}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/11-CollaborationList/Swansea.xlsx
+++ b/11-CollaborationList/Swansea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2056700888718/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E877DF9E-1B5A-7D48-AAEC-8CDD8161C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{E877DF9E-1B5A-7D48-AAEC-8CDD8161C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312C1596-7D5C-9D43-A050-9845047CC394}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{C7B4DE1C-39A7-AE49-9FC7-F7ADD8BDB7FA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{C7B4DE1C-39A7-AE49-9FC7-F7ADD8BDB7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Swansea" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Title</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>0000-0001-5436-5214</t>
+  </si>
+  <si>
+    <t>r.p.hugtenburg@swansea.ac.uk</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Hugtenburg</t>
+  </si>
+  <si>
+    <t>R.P.</t>
+  </si>
+  <si>
+    <t>R.P. Hugtenburg</t>
+  </si>
+  <si>
+    <t>Swansea-BioMed</t>
+  </si>
+  <si>
+    <t>Department of Biomedical Sciences, Faculty of Science and Engineering, Swansea University, Singleton Park, Swansea, SA2 8PP, UK</t>
   </si>
 </sst>
 </file>
@@ -734,8 +758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0">
-  <autoFilter ref="A1:O7" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0">
+  <autoFilter ref="A1:O8" xr:uid="{A9D3809B-6C57-DE42-BE34-4E4CB142F325}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{07AAADD6-1D96-3C47-AA7A-E0CE2B3A044F}" name="Title"/>
     <tableColumn id="2" xr3:uid="{67BBD9D0-348D-B448-B6F5-EE48C1CF1E38}" name="Name"/>
@@ -1074,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D5DD9B-58A0-6043-B6AD-BE2006C5709A}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,8 +1349,40 @@
       <c r="H7" t="s">
         <v>44</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="N7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
